--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F321960A-31E0-4547-BFD4-D8ECD4B832C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C9475-6E33-F941-9DBE-744721F603AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{170F6588-63A9-784C-A376-C92C81798569}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://entrepreneurship.ubc.ca/</t>
+    <t>https://entrepreneurship.ubc.ca/ | https://entrepreneurship.ubc.ca/who-we-are</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7425A2F6-E9BC-3B4F-96F4-66F7380AD1FA}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{491E056C-0073-0B4C-979C-A4C618C64A92}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{C866142E-86E3-F943-B40D-24A8E7E5C311}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://entrepreneurship.ubc.ca/" xr:uid="{C866142E-86E3-F943-B40D-24A8E7E5C311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C9475-6E33-F941-9DBE-744721F603AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89318C9-2690-394F-A59E-F439687D6399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{170F6588-63A9-784C-A376-C92C81798569}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18680" windowHeight="21580" xr2:uid="{170F6588-63A9-784C-A376-C92C81798569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>e@UBCO</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Engineers without borders</t>
   </si>
   <si>
-    <t>LaunchWeek</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -82,7 +79,100 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://entrepreneurship.ubc.ca/ | https://entrepreneurship.ubc.ca/who-we-are</t>
+    <t>https://entrepreneurship.ubc.ca/  | https://entrepreneurship.ubc.ca/engage-us/venture-founder 
+| 
+https://entrepreneurship.ubc.ca/engage-us/venture-studios
+| 
+https://entrepreneurship.ubc.ca/engage-us/hatch-venture-builder
+|
+https://entrepreneurship.ubc.ca/engage-us/internship-program
+|
+https://entrepreneurship.ubc.ca/engage-us/credit-courses
+|
+https://entrepreneurship.ubc.ca/engage-us/black-advisory-hub
+|
+https://entrepreneurship.ubc.ca/engage-us/discovery-foundation
+|
+https://entrepreneurship.ubc.ca/engage-us/job-board
+|
+https://entrepreneurship.ubc.ca/engage-us/your-application-journey-0 
+| 
+https://entrepreneurship.ubc.ca/engage-us/lab2market</t>
+  </si>
+  <si>
+    <t>https://entrepreneurship.ok.ubc.ca/ | 
+https://entrepreneurship.ok.ubc.ca/programs/ediscovery/ | 
+https://entrepreneurship.ok.ubc.ca/programs/startup-sprint/ | 
+https://entrepreneurship.ok.ubc.ca/programs/entrepreneur-in-residence/ | 
+https://entrepreneurship.ok.ubc.ca/resources/funding-support/ | 
+https://entrepreneurship.ok.ubc.ca/resources/employment/ | 
+https://entrepreneurship.ok.ubc.ca/resources/equal-opportunity/ | 
+https://entrepreneurship.ok.ubc.ca/resources/accelerators/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://socialenterpriseclub.ca/ | 
+http://socialenterpriseclub.ca/about/ </t>
+  </si>
+  <si>
+    <t>https://amscampusbase.ubc.ca/eprojubc/home/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://enactusubc.ca/ | 
+https://enactusubc.ca/about | 
+https://enactusubc.ca/competitions | 
+https://enactusubc.ca/ennovate | 
+https://enactusubc.ca/enspire | 
+https://enactusubc.ca/seeder | 
+https://enactusubc.ca/building-bridges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://innovation.ubc.ca/about/innovation-hubs | 
+https://innovation.ubc.ca/about/graham-lee-innovation-centre | 
+https://innovation.ubc.ca/how-engage/innovation-development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://summitleaders.ca/ | https://summitleaders.ca/about-us/ | https://summitleaders.ca/programs/ | https://summitleaders.ca/resources/ | https://summitleaders.ca/peer-forward-form/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sauder.ubc.ca/LIFT  | 
+https://www.sauder.ubc.ca/current-students/support-involvement-opportunities/ubc-sauder-lift/ubc-sauder-lift-learning-cycle | 
+https://www.sauder.ubc.ca/current-students/support-involvement-opportunities/ubc-sauder-lift/our-impact | 
+https://www.sauder.ubc.ca/current-students/support-involvement-opportunities/ubc-sauder-lift/our-partners | 
+https://www.sauder.ubc.ca/current-students/support-involvement-opportunities/ubc-sauder-lift/student-experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mbasociety.ca/clubs/business-innovation/ | 
+https://www.mbasociety.ca/society | 
+https://www.mbasociety.ca/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.innovationboard.ca/ | 
+https://www.innovationboard.ca//learn-more.html | 
+https://www.innovationboard.ca//2017/10/04/faq.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ewb.ca/en/ | 
+https://www.ewb.ca/en/about-us/our-approach/ | 
+https://www.ewb.ca/en/about-us/history/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/ | 
+https://members.ewb.ca/opportunities/caif | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/virtual-talent-xchange/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/junior-fellowship/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/the-ewb-fellowship/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/kumvana-fellowship/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-people/leadership-development/ | 
+https://www.ewb.ca/en/chapters/ | 
+https://www.ewb.ca/en/showcase/small-growing-business-ventures/ | 
+https://www.ewb.ca/en/showcase/governance-sustainable-services/ | 
+https://www.ewb.ca/en/showcase/evolving-engineering/ | 
+https://www.ewb.ca/en/what-we-do/investing-in-ventures/ | 
+https://www.ewb.ca/en/what-we-do/advocating-for-change/ | 
+https://members.ewb.ca/ | 
+https://www.ewb.ca/en/showcase/ | 
+https://www.ewb.ca/en/what-we-do/advocating-for-change/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1nKYKuUSEwx9d4x-68LYIr451P_VBsC3MhzjVL6ZJCHs/edit </t>
   </si>
 </sst>
 </file>
@@ -141,10 +231,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,100 +555,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7505868F-81E6-F349-B6DB-3E973EB13C95}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="83.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7425A2F6-E9BC-3B4F-96F4-66F7380AD1FA}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{491E056C-0073-0B4C-979C-A4C618C64A92}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://entrepreneurship.ubc.ca/" xr:uid="{C866142E-86E3-F943-B40D-24A8E7E5C311}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{D321C436-BE44-F44E-9849-E9211859326D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89318C9-2690-394F-A59E-F439687D6399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496EE76A-3D6C-3E45-A22C-FC204CE48C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="18680" windowHeight="21580" xr2:uid="{170F6588-63A9-784C-A376-C92C81798569}"/>
+    <workbookView xWindow="15880" yWindow="760" windowWidth="18680" windowHeight="21580" xr2:uid="{170F6588-63A9-784C-A376-C92C81798569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,11 +146,6 @@
 https://www.mbasociety.ca/ </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.innovationboard.ca/ | 
-https://www.innovationboard.ca//learn-more.html | 
-https://www.innovationboard.ca//2017/10/04/faq.html </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.ewb.ca/en/ | 
 https://www.ewb.ca/en/about-us/our-approach/ | 
 https://www.ewb.ca/en/about-us/history/ | 
@@ -173,6 +168,11 @@
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/document/d/1nKYKuUSEwx9d4x-68LYIr451P_VBsC3MhzjVL6ZJCHs/edit </t>
+  </si>
+  <si>
+    <t>https://www.innovationboard.ca/ | 
+https://www.innovationboard.ca//learn-more.html | 
+https://www.innovationboard.ca/2024/06/23/schedule.html | https://www.innovationboard.ca/2024/06/23/faq.html</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7505868F-81E6-F349-B6DB-3E973EB13C95}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,12 +647,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="323" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
